--- a/outputs/tf/ResNet50.xlsx
+++ b/outputs/tf/ResNet50.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ll\nnparser\outputs\tf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ll\github\NNparser\outputs\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +687,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -715,10 +722,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1038,14 +1046,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="5.875" customWidth="1"/>
+    <col min="21" max="21" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
@@ -2838,7 +2852,7 @@
       <c r="T41">
         <v>32896</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="3">
         <v>25690112</v>
       </c>
     </row>
@@ -8750,7 +8764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/outputs/tf/ResNet50.xlsx
+++ b/outputs/tf/ResNet50.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ll\github\NNparser\outputs\tf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ll\nnparser\outputs\tf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,13 +687,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -722,11 +715,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1046,20 +1038,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41:XFD41"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="5.875" customWidth="1"/>
-    <col min="21" max="21" width="16.625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
@@ -2852,7 +2838,7 @@
       <c r="T41">
         <v>32896</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41">
         <v>25690112</v>
       </c>
     </row>
@@ -8764,7 +8750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/outputs/tf/ResNet50.xlsx
+++ b/outputs/tf/ResNet50.xlsx
@@ -8846,12 +8846,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T178">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
-      <formula>2359808.0</formula>
+      <formula>2359808</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U178">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
-      <formula>118014016.0</formula>
+      <formula>118014016</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8889,7 +8889,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.40059280395508</v>
+        <v>37.120212</v>
       </c>
     </row>
     <row r="3">
@@ -8899,7 +8899,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.44907379150391</v>
+        <v>25.636712</v>
       </c>
     </row>
     <row r="4">
@@ -8909,7 +8909,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.593043245375156</v>
+        <v>3.858000808</v>
       </c>
     </row>
   </sheetData>
